--- a/2024-03-02/outputs/analysis/punching-mode-analysis.xlsx
+++ b/2024-03-02/outputs/analysis/punching-mode-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardo/repos/equipment-examinations/2024-03-02/outputs/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764DEE71-6A03-B946-BB91-AC5AF8CF8BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A316E2E-2BEA-D448-95AF-A5BD78DC9952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25300" windowHeight="17780" xr2:uid="{D5AB5245-E2D5-0A4D-9F39-36F53832340C}"/>
+    <workbookView xWindow="3440" yWindow="2860" windowWidth="25300" windowHeight="17780" xr2:uid="{D5AB5245-E2D5-0A4D-9F39-36F53832340C}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -5070,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC33F2B-0907-8247-BC13-0B3BE1C82C97}">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="254" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="254" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
